--- a/evaluation/image_metrics.xlsx
+++ b/evaluation/image_metrics.xlsx
@@ -453,2588 +453,2588 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_1.jpg</t>
+          <t>../check/v4n/A2B/real\R_1.jpg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7295.029159545898</v>
+        <v>5913.320266723633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.327776825320639</v>
+        <v>0.531593666860093</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_10.jpg</t>
+          <t>../check/v4n/A2B/real\R_10.jpg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3900.621231079102</v>
+        <v>3640.399353027344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3667870593014657</v>
+        <v>0.5542366950838553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_100.jpg</t>
+          <t>../check/v4n/A2B/real\R_100.jpg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4331.881393432617</v>
+        <v>18394.28916931152</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4033255882700961</v>
+        <v>0.4492518152153295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_101.jpg</t>
+          <t>../check/v4n/A2B/real\R_101.jpg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9983.878616333008</v>
+        <v>6673.214660644531</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2817500950526857</v>
+        <v>0.4107129641706155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_102.jpg</t>
+          <t>../check/v4n/A2B/real\R_102.jpg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4773.138092041016</v>
+        <v>6743.692535400391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3506512000443999</v>
+        <v>0.4919932382869631</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_103.jpg</t>
+          <t>../check/v4n/A2B/real\R_103.jpg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5522.894821166992</v>
+        <v>4880.753295898438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3120654768729664</v>
+        <v>0.4388864606890161</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_104.jpg</t>
+          <t>../check/v4n/A2B/real\R_104.jpg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4343.823883056641</v>
+        <v>9938.976867675781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4044087059453198</v>
+        <v>0.5312052588032147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_105.jpg</t>
+          <t>../check/v4n/A2B/real\R_105.jpg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4095.07829284668</v>
+        <v>17818.91000366211</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4538183276615825</v>
+        <v>0.4690153277550802</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_106.jpg</t>
+          <t>../check/v4n/A2B/real\R_106.jpg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3564.545883178711</v>
+        <v>13777.83415222168</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4753263119628548</v>
+        <v>0.4685169295147698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_107.jpg</t>
+          <t>../check/v4n/A2B/real\R_107.jpg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3716.870010375977</v>
+        <v>13657.66613769531</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4442775760506896</v>
+        <v>0.4710106085909451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_108.jpg</t>
+          <t>../check/v4n/A2B/real\R_108.jpg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7906.663955688477</v>
+        <v>9908.506423950195</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2709244390913583</v>
+        <v>0.4287264113147214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_109.jpg</t>
+          <t>../check/v4n/A2B/real\R_109.jpg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4311.660125732422</v>
+        <v>6575.539688110352</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4215524435021735</v>
+        <v>0.5387143939344566</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_11.jpg</t>
+          <t>../check/v4n/A2B/real\R_11.jpg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5937.169036865234</v>
+        <v>7295.585327148438</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3127115075491457</v>
+        <v>0.4398474657977145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_110.jpg</t>
+          <t>../check/v4n/A2B/real\R_110.jpg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4433.572967529297</v>
+        <v>8862.738739013672</v>
       </c>
       <c r="C15" t="n">
-        <v>0.434100751779178</v>
+        <v>0.543445454223248</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_111.jpg</t>
+          <t>../check/v4n/A2B/real\R_111.jpg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7625.370223999023</v>
+        <v>5036.561904907227</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2563697477739105</v>
+        <v>0.4526255668292813</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_112.jpg</t>
+          <t>../check/v4n/A2B/real\R_112.jpg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9582.261566162109</v>
+        <v>7954.263137817383</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2690554764540656</v>
+        <v>0.4544313943213729</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_113.jpg</t>
+          <t>../check/v4n/A2B/real\R_113.jpg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7506.083129882812</v>
+        <v>8605.77587890625</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3332553392489265</v>
+        <v>0.5320808757894594</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_114.jpg</t>
+          <t>../check/v4n/A2B/real\R_114.jpg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6990.729431152344</v>
+        <v>4868.015625</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2942414967500158</v>
+        <v>0.4685100039290642</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_115.jpg</t>
+          <t>../check/v4n/A2B/real\R_115.jpg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8839.130630493164</v>
+        <v>20064.44775390625</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3181167614816132</v>
+        <v>0.4100075013871478</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_116.jpg</t>
+          <t>../check/v4n/A2B/real\R_116.jpg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6174.027862548828</v>
+        <v>4380.200531005859</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3752154405256498</v>
+        <v>0.5592051871886828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_117.jpg</t>
+          <t>../check/v4n/A2B/real\R_117.jpg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6661.071853637695</v>
+        <v>5007.474060058594</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3781348943087781</v>
+        <v>0.5851060516658325</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_118.jpg</t>
+          <t>../check/v4n/A2B/real\R_118.jpg</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7062.181137084961</v>
+        <v>3304.092636108398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2948308873081822</v>
+        <v>0.5052672392691518</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_119.jpg</t>
+          <t>../check/v4n/A2B/real\R_119.jpg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5985.292785644531</v>
+        <v>6235.079681396484</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2840427143981867</v>
+        <v>0.4787479461454454</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_12.jpg</t>
+          <t>../check/v4n/A2B/real\R_12.jpg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3589.813537597656</v>
+        <v>4540.347183227539</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3681700568678841</v>
+        <v>0.5019847079889926</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_120.jpg</t>
+          <t>../check/v4n/A2B/real\R_120.jpg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4346.71662902832</v>
+        <v>5774.821899414062</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3829741855011624</v>
+        <v>0.5417921407907782</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_121.jpg</t>
+          <t>../check/v4n/A2B/real\R_121.jpg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5912.187118530273</v>
+        <v>6616.900848388672</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2796549761979801</v>
+        <v>0.4716657829371717</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_122.jpg</t>
+          <t>../check/v4n/A2B/real\R_122.jpg</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5833.138458251953</v>
+        <v>7438.640579223633</v>
       </c>
       <c r="C28" t="n">
-        <v>0.260518421751569</v>
+        <v>0.4194003621027897</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_123.jpg</t>
+          <t>../check/v4n/A2B/real\R_123.jpg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6733.955413818359</v>
+        <v>4105.556869506836</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2719533149726502</v>
+        <v>0.5054318977139883</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_124.jpg</t>
+          <t>../check/v4n/A2B/real\R_124.jpg</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5632.948318481445</v>
+        <v>4123.785354614258</v>
       </c>
       <c r="C30" t="n">
-        <v>0.343650658526609</v>
+        <v>0.5868408299161807</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_125.jpg</t>
+          <t>../check/v4n/A2B/real\R_125.jpg</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9358.496337890625</v>
+        <v>6688.720809936523</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2679002188016702</v>
+        <v>0.4711064951303747</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_126.jpg</t>
+          <t>../check/v4n/A2B/real\R_126.jpg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3499.068359375</v>
+        <v>5054.012603759766</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4350980818454406</v>
+        <v>0.5797137230745092</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_127.jpg</t>
+          <t>../check/v4n/A2B/real\R_127.jpg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5047.256378173828</v>
+        <v>2374.924163818359</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3701206625106935</v>
+        <v>0.5585181133230818</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_128.jpg</t>
+          <t>../check/v4n/A2B/real\R_128.jpg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4434.759658813477</v>
+        <v>3763.432647705078</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4284154282113872</v>
+        <v>0.600068120319497</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_129.jpg</t>
+          <t>../check/v4n/A2B/real\R_129.jpg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7306.121932983398</v>
+        <v>2859.1044921875</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3130740304096654</v>
+        <v>0.5129009516194404</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_13.jpg</t>
+          <t>../check/v4n/A2B/real\R_13.jpg</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>11835.09742736816</v>
+        <v>16953.3904876709</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3058260334341793</v>
+        <v>0.4300670179589305</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_130.jpg</t>
+          <t>../check/v4n/A2B/real\R_130.jpg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6271.053329467773</v>
+        <v>3559.309539794922</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3151447169577217</v>
+        <v>0.5163304646664288</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_131.jpg</t>
+          <t>../check/v4n/A2B/real\R_131.jpg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5400.778503417969</v>
+        <v>3669.160934448242</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3829644428848786</v>
+        <v>0.5444979458820507</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_132.jpg</t>
+          <t>../check/v4n/A2B/real\R_132.jpg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7942.242233276367</v>
+        <v>3231.177307128906</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3154711184629202</v>
+        <v>0.5496540886328184</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_133.jpg</t>
+          <t>../check/v4n/A2B/real\R_133.jpg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6534.293426513672</v>
+        <v>8287.791290283203</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3175794281522962</v>
+        <v>0.4467300166432367</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_134.jpg</t>
+          <t>../check/v4n/A2B/real\R_134.jpg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5494.194732666016</v>
+        <v>3791.80744934082</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3726782766120302</v>
+        <v>0.5586797295460011</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_135.jpg</t>
+          <t>../check/v4n/A2B/real\R_135.jpg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8686.194122314453</v>
+        <v>3677.284790039062</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2709212830523381</v>
+        <v>0.5187186201681268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_136.jpg</t>
+          <t>../check/v4n/A2B/real\R_136.jpg</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4709.665924072266</v>
+        <v>6096.986999511719</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4418324998548782</v>
+        <v>0.5797434500021624</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_137.jpg</t>
+          <t>../check/v4n/A2B/real\R_137.jpg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4055.397583007812</v>
+        <v>2316.289733886719</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4702962181324076</v>
+        <v>0.6329246668147941</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_138.jpg</t>
+          <t>../check/v4n/A2B/real\R_138.jpg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5588.448318481445</v>
+        <v>2481.82780456543</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3167931037945258</v>
+        <v>0.5532097507956696</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_139.jpg</t>
+          <t>../check/v4n/A2B/real\R_139.jpg</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8907.05290222168</v>
+        <v>7108.627105712891</v>
       </c>
       <c r="C46" t="n">
-        <v>0.235282849591869</v>
+        <v>0.4338335979455208</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_14.jpg</t>
+          <t>../check/v4n/A2B/real\R_14.jpg</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4083.645538330078</v>
+        <v>4234.668685913086</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3637464419012464</v>
+        <v>0.5304178914464104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_140.jpg</t>
+          <t>../check/v4n/A2B/real\R_140.jpg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4514.163940429688</v>
+        <v>3990.133605957031</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3972387245017903</v>
+        <v>0.5961337212815231</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_141.jpg</t>
+          <t>../check/v4n/A2B/real\R_141.jpg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8876.677337646484</v>
+        <v>5227.105651855469</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3752421714869366</v>
+        <v>0.5451472776207565</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_142.jpg</t>
+          <t>../check/v4n/A2B/real\R_142.jpg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4457.791946411133</v>
+        <v>3466.082382202148</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3749934182291778</v>
+        <v>0.594245137638397</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_143.jpg</t>
+          <t>../check/v4n/A2B/real\R_143.jpg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6977.813354492188</v>
+        <v>2891.196395874023</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2846674760423595</v>
+        <v>0.5501320293491393</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_144.jpg</t>
+          <t>../check/v4n/A2B/real\R_144.jpg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7171.512054443359</v>
+        <v>10141.1595916748</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2798407175573105</v>
+        <v>0.4486617987791143</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_145.jpg</t>
+          <t>../check/v4n/A2B/real\R_145.jpg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4509.439468383789</v>
+        <v>2244.427139282227</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3673664236226593</v>
+        <v>0.6157320664947843</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_146.jpg</t>
+          <t>../check/v4n/A2B/real\R_146.jpg</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5510.166275024414</v>
+        <v>5640.00065612793</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3873102150512754</v>
+        <v>0.5672206632530098</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_147.jpg</t>
+          <t>../check/v4n/A2B/real\R_147.jpg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4486.054229736328</v>
+        <v>2568.501678466797</v>
       </c>
       <c r="C55" t="n">
-        <v>0.464620313531227</v>
+        <v>0.6499545678674788</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_148.jpg</t>
+          <t>../check/v4n/A2B/real\R_148.jpg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8143.684906005859</v>
+        <v>2256.733032226562</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2451177808181525</v>
+        <v>0.5103673623333157</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_149.jpg</t>
+          <t>../check/v4n/A2B/real\R_149.jpg</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5041.442413330078</v>
+        <v>5042.006851196289</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4227275711434635</v>
+        <v>0.6188330489448013</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_15.jpg</t>
+          <t>../check/v4n/A2B/real\R_15.jpg</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4618.789916992188</v>
+        <v>2319.734909057617</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3539820376424536</v>
+        <v>0.5321265473195643</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_150.jpg</t>
+          <t>../check/v4n/A2B/real\R_150.jpg</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7733.288055419922</v>
+        <v>3276.035339355469</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3141068150931884</v>
+        <v>0.5807753700375726</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_151.jpg</t>
+          <t>../check/v4n/A2B/real\R_151.jpg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6383.250946044922</v>
+        <v>6671.311965942383</v>
       </c>
       <c r="C60" t="n">
-        <v>0.370759483039536</v>
+        <v>0.5943849277111549</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_152.jpg</t>
+          <t>../check/v4n/A2B/real\R_152.jpg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>7340.66552734375</v>
+        <v>4258.089477539062</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3576030389340707</v>
+        <v>0.6032555243935563</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_153.jpg</t>
+          <t>../check/v4n/A2B/real\R_153.jpg</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5556.659164428711</v>
+        <v>2573.716674804688</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3102450488195768</v>
+        <v>0.5394946553562882</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_154.jpg</t>
+          <t>../check/v4n/A2B/real\R_154.jpg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7512.186828613281</v>
+        <v>1936.851516723633</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2663367900601394</v>
+        <v>0.5169878805873976</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_155.jpg</t>
+          <t>../check/v4n/A2B/real\R_155.jpg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8056.207763671875</v>
+        <v>16257.78221130371</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2788355140785742</v>
+        <v>0.3514078580253169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_156.jpg</t>
+          <t>../check/v4n/A2B/real\R_156.jpg</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5353.820739746094</v>
+        <v>6241.101364135742</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3442677568969284</v>
+        <v>0.5056812353081156</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_157.jpg</t>
+          <t>../check/v4n/A2B/real\R_157.jpg</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4918.317428588867</v>
+        <v>2749.895782470703</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4091211862655382</v>
+        <v>0.596446519335316</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_158.jpg</t>
+          <t>../check/v4n/A2B/real\R_158.jpg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4209.282485961914</v>
+        <v>6368.457824707031</v>
       </c>
       <c r="C67" t="n">
-        <v>0.420461681359863</v>
+        <v>0.5572857273050615</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_159.jpg</t>
+          <t>../check/v4n/A2B/real\R_159.jpg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5642.807510375977</v>
+        <v>5203.224243164062</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3257942326944758</v>
+        <v>0.5727242239917781</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_16.jpg</t>
+          <t>../check/v4n/A2B/real\R_16.jpg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6491.170181274414</v>
+        <v>5531.632522583008</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3140970434814019</v>
+        <v>0.4683330709986707</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_160.jpg</t>
+          <t>../check/v4n/A2B/real\R_160.jpg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5257.495697021484</v>
+        <v>3355.100631713867</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4044066164629677</v>
+        <v>0.6218762880490156</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_161.jpg</t>
+          <t>../check/v4n/A2B/real\R_161.jpg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4555.557662963867</v>
+        <v>3330.948165893555</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3714327127315228</v>
+        <v>0.5190350221871693</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_162.jpg</t>
+          <t>../check/v4n/A2B/real\R_162.jpg</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4834.448516845703</v>
+        <v>4382.811370849609</v>
       </c>
       <c r="C72" t="n">
-        <v>0.409371027203737</v>
+        <v>0.5726350779523166</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_163.jpg</t>
+          <t>../check/v4n/A2B/real\R_163.jpg</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8374.042663574219</v>
+        <v>3836.910858154297</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3493902175493962</v>
+        <v>0.4881526945988846</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_164.jpg</t>
+          <t>../check/v4n/A2B/real\R_164.jpg</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4405.933670043945</v>
+        <v>5215.042175292969</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3818444957197172</v>
+        <v>0.4771203734570298</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_165.jpg</t>
+          <t>../check/v4n/A2B/real\R_165.jpg</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5714.446884155273</v>
+        <v>5848.038452148438</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3659650658365758</v>
+        <v>0.5630698794977338</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_166.jpg</t>
+          <t>../check/v4n/A2B/real\R_166.jpg</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8629.967529296875</v>
+        <v>34518.92910766602</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2577668499168678</v>
+        <v>0.2939597747531499</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_167.jpg</t>
+          <t>../check/v4n/A2B/real\R_167.jpg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3835.937393188477</v>
+        <v>2924.026306152344</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4816234658612458</v>
+        <v>0.6336572416559925</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_168.jpg</t>
+          <t>../check/v4n/A2B/real\R_168.jpg</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5873.108001708984</v>
+        <v>4657.972137451172</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3092954690912483</v>
+        <v>0.4963373632703187</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_169.jpg</t>
+          <t>../check/v4n/A2B/real\R_169.jpg</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3841.357116699219</v>
+        <v>2794.546325683594</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3810706061384983</v>
+        <v>0.5492271557595526</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_17.jpg</t>
+          <t>../check/v4n/A2B/real\R_17.jpg</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4945.796096801758</v>
+        <v>7800.647552490234</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3477596599412711</v>
+        <v>0.4791175022412988</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_170.jpg</t>
+          <t>../check/v4n/A2B/real\R_170.jpg</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6716.311431884766</v>
+        <v>5463.658401489258</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3692316190777152</v>
+        <v>0.5946686596838026</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_171.jpg</t>
+          <t>../check/v4n/A2B/real\R_171.jpg</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12889.31628417969</v>
+        <v>3699.783477783203</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3243859459480353</v>
+        <v>0.4898344092749414</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_172.jpg</t>
+          <t>../check/v4n/A2B/real\R_172.jpg</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6557.014358520508</v>
+        <v>4770.747528076172</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2911457210534016</v>
+        <v>0.4936594031483756</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_173.jpg</t>
+          <t>../check/v4n/A2B/real\R_173.jpg</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6678.009704589844</v>
+        <v>6886.730422973633</v>
       </c>
       <c r="C84" t="n">
-        <v>0.335808133728026</v>
+        <v>0.5689164751476166</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_174.jpg</t>
+          <t>../check/v4n/A2B/real\R_174.jpg</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6181.373733520508</v>
+        <v>5626.93571472168</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3952094573288845</v>
+        <v>0.58975422746969</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_175.jpg</t>
+          <t>../check/v4n/A2B/real\R_175.jpg</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>5436.709411621094</v>
+        <v>7870.048202514648</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3315672237143383</v>
+        <v>0.4740248885774405</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_176.jpg</t>
+          <t>../check/v4n/A2B/real\R_176.jpg</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6505.447296142578</v>
+        <v>10182.80442810059</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3222642494366093</v>
+        <v>0.4098041482358091</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_177.jpg</t>
+          <t>../check/v4n/A2B/real\R_177.jpg</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7505.038146972656</v>
+        <v>14250.07243347168</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2973794968807569</v>
+        <v>0.3055019507720511</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_178.jpg</t>
+          <t>../check/v4n/A2B/real\R_178.jpg</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3312.727462768555</v>
+        <v>5445.786605834961</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4079254233403402</v>
+        <v>0.5168347864218507</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_179.jpg</t>
+          <t>../check/v4n/A2B/real\R_179.jpg</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5144.717819213867</v>
+        <v>4180.690719604492</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3309737438680065</v>
+        <v>0.4903912854362184</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_18.jpg</t>
+          <t>../check/v4n/A2B/real\R_18.jpg</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4805.073486328125</v>
+        <v>4160.292877197266</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3558552809341607</v>
+        <v>0.5030343268171072</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_180.jpg</t>
+          <t>../check/v4n/A2B/real\R_180.jpg</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4515.992965698242</v>
+        <v>6849.989044189453</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3736806628903861</v>
+        <v>0.4395322267936327</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_181.jpg</t>
+          <t>../check/v4n/A2B/real\R_181.jpg</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5508.389663696289</v>
+        <v>3154.536514282227</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3696532917444494</v>
+        <v>0.4822699343260583</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_182.jpg</t>
+          <t>../check/v4n/A2B/real\R_182.jpg</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5784.142303466797</v>
+        <v>7343.253265380859</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3345121619233191</v>
+        <v>0.4748365750329626</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_183.jpg</t>
+          <t>../check/v4n/A2B/real\R_183.jpg</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3638.124465942383</v>
+        <v>4172.063766479492</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4426027251088505</v>
+        <v>0.5428713786201541</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_184.jpg</t>
+          <t>../check/v4n/A2B/real\R_184.jpg</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4638.364898681641</v>
+        <v>8597.947692871094</v>
       </c>
       <c r="C96" t="n">
-        <v>0.381393899882593</v>
+        <v>0.4852353876094191</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_185.jpg</t>
+          <t>../check/v4n/A2B/real\R_185.jpg</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3743.134582519531</v>
+        <v>8867.502731323242</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4204732858333426</v>
+        <v>0.4915160474150484</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_186.jpg</t>
+          <t>../check/v4n/A2B/real\R_186.jpg</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3715.13102722168</v>
+        <v>7107.696640014648</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4303649650105377</v>
+        <v>0.5284266897220261</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_187.jpg</t>
+          <t>../check/v4n/A2B/real\R_187.jpg</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5417.004409790039</v>
+        <v>4636.027725219727</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3259683612341133</v>
+        <v>0.4642310659229419</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_188.jpg</t>
+          <t>../check/v4n/A2B/real\R_188.jpg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6825.523223876953</v>
+        <v>3680.297225952148</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3094176771420699</v>
+        <v>0.5268353412590968</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_189.jpg</t>
+          <t>../check/v4n/A2B/real\R_189.jpg</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6252.532379150391</v>
+        <v>5015.780090332031</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3133862697090385</v>
+        <v>0.4706376600697793</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_19.jpg</t>
+          <t>../check/v4n/A2B/real\R_19.jpg</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4279.737716674805</v>
+        <v>4435.321395874023</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3766268437653021</v>
+        <v>0.5458946341803815</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_190.jpg</t>
+          <t>../check/v4n/A2B/real\R_190.jpg</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6128.034881591797</v>
+        <v>4527.536560058594</v>
       </c>
       <c r="C103" t="n">
-        <v>0.317014888588224</v>
+        <v>0.4682717583204075</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_191.jpg</t>
+          <t>../check/v4n/A2B/real\R_191.jpg</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>6445.85498046875</v>
+        <v>5292.577713012695</v>
       </c>
       <c r="C104" t="n">
-        <v>0.273108150535572</v>
+        <v>0.4404874097113452</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_192.jpg</t>
+          <t>../check/v4n/A2B/real\R_192.jpg</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5160.280410766602</v>
+        <v>4119.032180786133</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3796627577551059</v>
+        <v>0.5467927879920923</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_193.jpg</t>
+          <t>../check/v4n/A2B/real\R_193.jpg</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4873.360961914062</v>
+        <v>2790.569931030273</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3686022630693504</v>
+        <v>0.5633586639040696</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_194.jpg</t>
+          <t>../check/v4n/A2B/real\R_194.jpg</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3091.232574462891</v>
+        <v>3082.15412902832</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4601093204148534</v>
+        <v>0.6579522194435633</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_195.jpg</t>
+          <t>../check/v4n/A2B/real\R_195.jpg</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4802.469833374023</v>
+        <v>2157.103454589844</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2562780488487946</v>
+        <v>0.5139426973732893</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_196.jpg</t>
+          <t>../check/v4n/A2B/real\R_196.jpg</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5298.273071289062</v>
+        <v>4032.873870849609</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3436085124280331</v>
+        <v>0.5140100189711866</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_197.jpg</t>
+          <t>../check/v4n/A2B/real\R_197.jpg</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>5588.177780151367</v>
+        <v>6545.073638916016</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3588687861512068</v>
+        <v>0.5117674187232276</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_198.jpg</t>
+          <t>../check/v4n/A2B/real\R_198.jpg</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4936.027923583984</v>
+        <v>5817.250686645508</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3713181259271686</v>
+        <v>0.5248574060883556</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_199.jpg</t>
+          <t>../check/v4n/A2B/real\R_199.jpg</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4767.751007080078</v>
+        <v>5881.920852661133</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3975433277115458</v>
+        <v>0.5276988592795453</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_2.jpg</t>
+          <t>../check/v4n/A2B/real\R_2.jpg</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4080.883697509766</v>
+        <v>1736.459289550781</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3477838025697039</v>
+        <v>0.5676903832606932</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_20.jpg</t>
+          <t>../check/v4n/A2B/real\R_20.jpg</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>6825.557342529297</v>
+        <v>5132.282943725586</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2916713861489837</v>
+        <v>0.5048213709601831</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_21.jpg</t>
+          <t>../check/v4n/A2B/real\R_21.jpg</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3842.76286315918</v>
+        <v>6409.651672363281</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3803687212902832</v>
+        <v>0.5204401193560103</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_22.jpg</t>
+          <t>../check/v4n/A2B/real\R_22.jpg</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6001.410873413086</v>
+        <v>3735.793792724609</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2916277133796625</v>
+        <v>0.4912658727110585</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_23.jpg</t>
+          <t>../check/v4n/A2B/real\R_23.jpg</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3788.402008056641</v>
+        <v>5391.533645629883</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4364900503379014</v>
+        <v>0.524958542610963</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_24.jpg</t>
+          <t>../check/v4n/A2B/real\R_24.jpg</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4288.719360351562</v>
+        <v>4293.713088989258</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3240626739080545</v>
+        <v>0.4805175022581483</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_25.jpg</t>
+          <t>../check/v4n/A2B/real\R_25.jpg</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6118.797866821289</v>
+        <v>5572.158096313477</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3116942239658507</v>
+        <v>0.4055193701546909</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_26.jpg</t>
+          <t>../check/v4n/A2B/real\R_26.jpg</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>6346.661346435547</v>
+        <v>3809.050888061523</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2840591429821365</v>
+        <v>0.4474124166115623</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_27.jpg</t>
+          <t>../check/v4n/A2B/real\R_27.jpg</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6328.056610107422</v>
+        <v>8676.00895690918</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3253489708098491</v>
+        <v>0.4636507537038534</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_28.jpg</t>
+          <t>../check/v4n/A2B/real\R_28.jpg</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5874.352264404297</v>
+        <v>7883.766021728516</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3134866598611267</v>
+        <v>0.4507038310690629</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_29.jpg</t>
+          <t>../check/v4n/A2B/real\R_29.jpg</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5891.977172851562</v>
+        <v>5711.347061157227</v>
       </c>
       <c r="C123" t="n">
-        <v>0.327599997347628</v>
+        <v>0.5091873960017806</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_3.jpg</t>
+          <t>../check/v4n/A2B/real\R_3.jpg</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3854.373916625977</v>
+        <v>4908.517333984375</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4141050305232559</v>
+        <v>0.5709906854929473</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_30.jpg</t>
+          <t>../check/v4n/A2B/real\R_30.jpg</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4330.21076965332</v>
+        <v>4781.76383972168</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3772406145702527</v>
+        <v>0.5223666119629725</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_31.jpg</t>
+          <t>../check/v4n/A2B/real\R_31.jpg</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3823.928421020508</v>
+        <v>5118.22673034668</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4116909644803722</v>
+        <v>0.5684456882473675</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_32.jpg</t>
+          <t>../check/v4n/A2B/real\R_32.jpg</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>8192.782577514648</v>
+        <v>9068.433731079102</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3339191567440181</v>
+        <v>0.4211728852386677</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_33.jpg</t>
+          <t>../check/v4n/A2B/real\R_33.jpg</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>7259.014663696289</v>
+        <v>8129.278747558594</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3118070475477712</v>
+        <v>0.4459372278526414</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_34.jpg</t>
+          <t>../check/v4n/A2B/real\R_34.jpg</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4751.211975097656</v>
+        <v>6578.217575073242</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3660632465615751</v>
+        <v>0.4677632511441347</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_35.jpg</t>
+          <t>../check/v4n/A2B/real\R_35.jpg</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4108.912628173828</v>
+        <v>9209.041275024414</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3480760375070595</v>
+        <v>0.4686809079607048</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_36.jpg</t>
+          <t>../check/v4n/A2B/real\R_36.jpg</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4230.185775756836</v>
+        <v>7322.714721679688</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4085595786660171</v>
+        <v>0.5413491643528238</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_37.jpg</t>
+          <t>../check/v4n/A2B/real\R_37.jpg</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5997.471939086914</v>
+        <v>4805.778076171875</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2602977193745846</v>
+        <v>0.4235991549565539</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_38.jpg</t>
+          <t>../check/v4n/A2B/real\R_38.jpg</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6359.001525878906</v>
+        <v>7277.222305297852</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2827006549165831</v>
+        <v>0.4100506588067089</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_39.jpg</t>
+          <t>../check/v4n/A2B/real\R_39.jpg</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4737.840591430664</v>
+        <v>9314.331085205078</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3857768397125095</v>
+        <v>0.4706885000997494</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_4.jpg</t>
+          <t>../check/v4n/A2B/real\R_4.jpg</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>5593.700759887695</v>
+        <v>3432.371032714844</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3786002260614929</v>
+        <v>0.6173918138726796</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_40.jpg</t>
+          <t>../check/v4n/A2B/real\R_40.jpg</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>8825.629028320312</v>
+        <v>9151.659286499023</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3062453910601319</v>
+        <v>0.4320392611905981</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_41.jpg</t>
+          <t>../check/v4n/A2B/real\R_41.jpg</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>8619.811019897461</v>
+        <v>11692.09233093262</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2959902414069678</v>
+        <v>0.4184607302171967</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_42.jpg</t>
+          <t>../check/v4n/A2B/real\R_42.jpg</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>6684.362838745117</v>
+        <v>12596.44036865234</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3034647582078621</v>
+        <v>0.3665826954376797</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_43.jpg</t>
+          <t>../check/v4n/A2B/real\R_43.jpg</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>8241.012390136719</v>
+        <v>13986.74328613281</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3271089669806482</v>
+        <v>0.4741649410941225</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_44.jpg</t>
+          <t>../check/v4n/A2B/real\R_44.jpg</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>5334.092971801758</v>
+        <v>6477.257278442383</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4194803780099698</v>
+        <v>0.5111325022259717</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_45.jpg</t>
+          <t>../check/v4n/A2B/real\R_45.jpg</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>9409.719680786133</v>
+        <v>3570.319961547852</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2078880969543827</v>
+        <v>0.4130488749978332</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_46.jpg</t>
+          <t>../check/v4n/A2B/real\R_46.jpg</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>9386.068740844727</v>
+        <v>6678.166610717773</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2993115637831946</v>
+        <v>0.4786836273562218</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_47.jpg</t>
+          <t>../check/v4n/A2B/real\R_47.jpg</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>13443.26889038086</v>
+        <v>20868.67721557617</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2975349524378161</v>
+        <v>0.41366111855789</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_48.jpg</t>
+          <t>../check/v4n/A2B/real\R_48.jpg</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>10670.12184143066</v>
+        <v>19967.98146057129</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2729915603828078</v>
+        <v>0.4187885139493923</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_49.jpg</t>
+          <t>../check/v4n/A2B/real\R_49.jpg</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>11612.99723815918</v>
+        <v>21811.58387756348</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2991779879051011</v>
+        <v>0.3857022043932255</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_5.jpg</t>
+          <t>../check/v4n/A2B/real\R_5.jpg</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>5361.656326293945</v>
+        <v>6565.152130126953</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3761532350005756</v>
+        <v>0.5578836880835966</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_50.jpg</t>
+          <t>../check/v4n/A2B/real\R_50.jpg</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6729.197479248047</v>
+        <v>8568.767196655273</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3093092618726652</v>
+        <v>0.4085837339461357</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_51.jpg</t>
+          <t>../check/v4n/A2B/real\R_51.jpg</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4198.263000488281</v>
+        <v>6479.873321533203</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3480717034487525</v>
+        <v>0.4645659896129032</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_52.jpg</t>
+          <t>../check/v4n/A2B/real\R_52.jpg</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6187.139862060547</v>
+        <v>4919.430862426758</v>
       </c>
       <c r="C149" t="n">
-        <v>0.28030305216993</v>
+        <v>0.4726556404956146</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_53.jpg</t>
+          <t>../check/v4n/A2B/real\R_53.jpg</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>9738.196472167969</v>
+        <v>8813.302673339844</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2561269646246188</v>
+        <v>0.4410002482082804</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_54.jpg</t>
+          <t>../check/v4n/A2B/real\R_54.jpg</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>5556.753524780273</v>
+        <v>5218.799926757812</v>
       </c>
       <c r="C151" t="n">
-        <v>0.307535679600845</v>
+        <v>0.4873031164913939</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_55.jpg</t>
+          <t>../check/v4n/A2B/real\R_55.jpg</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6200.700500488281</v>
+        <v>4716.622482299805</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3108824287396761</v>
+        <v>0.4835477739237088</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_56.jpg</t>
+          <t>../check/v4n/A2B/real\R_56.jpg</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>6142.912475585938</v>
+        <v>4730.221374511719</v>
       </c>
       <c r="C153" t="n">
-        <v>0.3317046133948061</v>
+        <v>0.4472245606696606</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_57.jpg</t>
+          <t>../check/v4n/A2B/real\R_57.jpg</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>9069.107421875</v>
+        <v>10574.8805847168</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2234428348809412</v>
+        <v>0.4265625161163859</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_58.jpg</t>
+          <t>../check/v4n/A2B/real\R_58.jpg</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4061.583679199219</v>
+        <v>7245.209396362305</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3827008207808218</v>
+        <v>0.4827680243470264</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_59.jpg</t>
+          <t>../check/v4n/A2B/real\R_59.jpg</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5273.002639770508</v>
+        <v>8849.863357543945</v>
       </c>
       <c r="C156" t="n">
-        <v>0.3348883329511992</v>
+        <v>0.4504770791297917</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_6.jpg</t>
+          <t>../check/v4n/A2B/real\R_6.jpg</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4483.28776550293</v>
+        <v>4271.515502929688</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4173407259606164</v>
+        <v>0.5551114953374915</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_60.jpg</t>
+          <t>../check/v4n/A2B/real\R_60.jpg</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>7073.329833984375</v>
+        <v>15744.67584228516</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3072965711916358</v>
+        <v>0.3897281141318817</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_61.jpg</t>
+          <t>../check/v4n/A2B/real\R_61.jpg</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>8097.730331420898</v>
+        <v>10861.76774597168</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2935610406465118</v>
+        <v>0.4284435689979932</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_62.jpg</t>
+          <t>../check/v4n/A2B/real\R_62.jpg</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>8442.367828369141</v>
+        <v>7137.903610229492</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2418077412928108</v>
+        <v>0.401117275400952</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_63.jpg</t>
+          <t>../check/v4n/A2B/real\R_63.jpg</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3952.614028930664</v>
+        <v>4960.766952514648</v>
       </c>
       <c r="C161" t="n">
-        <v>0.312177777752315</v>
+        <v>0.4445018099790194</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_64.jpg</t>
+          <t>../check/v4n/A2B/real\R_64.jpg</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>5444.396453857422</v>
+        <v>8100.240310668945</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3630194469288067</v>
+        <v>0.4281583284104566</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_65.jpg</t>
+          <t>../check/v4n/A2B/real\R_65.jpg</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>6731.624664306641</v>
+        <v>6929.253326416016</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3040033124725205</v>
+        <v>0.420137125173607</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_66.jpg</t>
+          <t>../check/v4n/A2B/real\R_66.jpg</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4071.114135742188</v>
+        <v>12402.09233093262</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3644763474914443</v>
+        <v>0.4699246441323188</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_67.jpg</t>
+          <t>../check/v4n/A2B/real\R_67.jpg</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>6301.673583984375</v>
+        <v>10053.35252380371</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2648246285803302</v>
+        <v>0.3748242126340129</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_68.jpg</t>
+          <t>../check/v4n/A2B/real\R_68.jpg</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5240.202194213867</v>
+        <v>10138.92182922363</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3649171982874249</v>
+        <v>0.4857066185227719</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_69.jpg</t>
+          <t>../check/v4n/A2B/real\R_69.jpg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>3774.197357177734</v>
+        <v>7825.417724609375</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3981630035738045</v>
+        <v>0.4997318951355057</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_7.jpg</t>
+          <t>../check/v4n/A2B/real\R_7.jpg</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>7482.538757324219</v>
+        <v>2785.74186706543</v>
       </c>
       <c r="C168" t="n">
-        <v>0.2608608579529137</v>
+        <v>0.4805890317419908</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_70.jpg</t>
+          <t>../check/v4n/A2B/real\R_70.jpg</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>3499.962966918945</v>
+        <v>10414.84594726562</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4128402446903808</v>
+        <v>0.4632018982841506</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_71.jpg</t>
+          <t>../check/v4n/A2B/real\R_71.jpg</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3410.881439208984</v>
+        <v>7200.052505493164</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4199745435090752</v>
+        <v>0.5230239875643233</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_72.jpg</t>
+          <t>../check/v4n/A2B/real\R_72.jpg</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4611.269515991211</v>
+        <v>5132.420608520508</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3225192697096896</v>
+        <v>0.4322280828269935</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_73.jpg</t>
+          <t>../check/v4n/A2B/real\R_73.jpg</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>4815.795593261719</v>
+        <v>9604.059310913086</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2983379635245727</v>
+        <v>0.4369417735495807</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_74.jpg</t>
+          <t>../check/v4n/A2B/real\R_74.jpg</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>6019.805297851562</v>
+        <v>7059.816024780273</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2910451331606012</v>
+        <v>0.4364786949617165</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_75.jpg</t>
+          <t>../check/v4n/A2B/real\R_75.jpg</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4488.641662597656</v>
+        <v>10559.80783081055</v>
       </c>
       <c r="C174" t="n">
-        <v>0.405167172322254</v>
+        <v>0.4171595614748562</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_76.jpg</t>
+          <t>../check/v4n/A2B/real\R_76.jpg</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>5113.987640380859</v>
+        <v>16165.15934753418</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3667094942242613</v>
+        <v>0.4879735998647277</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_77.jpg</t>
+          <t>../check/v4n/A2B/real\R_77.jpg</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>4611.71418762207</v>
+        <v>8138.780120849609</v>
       </c>
       <c r="C176" t="n">
-        <v>0.3347073062068906</v>
+        <v>0.51377881361223</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_78.jpg</t>
+          <t>../check/v4n/A2B/real\R_78.jpg</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>7471.885833740234</v>
+        <v>10260.57225036621</v>
       </c>
       <c r="C177" t="n">
-        <v>0.3341992096163262</v>
+        <v>0.5060500655389785</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_79.jpg</t>
+          <t>../check/v4n/A2B/real\R_79.jpg</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>7598.054718017578</v>
+        <v>10399.94635009766</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3110352604651219</v>
+        <v>0.4681189428093253</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_8.jpg</t>
+          <t>../check/v4n/A2B/real\R_8.jpg</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>4040.210922241211</v>
+        <v>3757.799453735352</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4490196069563413</v>
+        <v>0.6201874124235601</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_80.jpg</t>
+          <t>../check/v4n/A2B/real\R_80.jpg</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4792.750015258789</v>
+        <v>9217.900680541992</v>
       </c>
       <c r="C180" t="n">
-        <v>0.3823650459319493</v>
+        <v>0.4509348512912562</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_81.jpg</t>
+          <t>../check/v4n/A2B/real\R_81.jpg</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>8478.029266357422</v>
+        <v>5305.234954833984</v>
       </c>
       <c r="C181" t="n">
-        <v>0.3070034447482571</v>
+        <v>0.4989058682014151</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_82.jpg</t>
+          <t>../check/v4n/A2B/real\R_82.jpg</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6862.964614868164</v>
+        <v>9990.990173339844</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2995258939452425</v>
+        <v>0.4580709329286783</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_83.jpg</t>
+          <t>../check/v4n/A2B/real\R_83.jpg</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>6364.627792358398</v>
+        <v>2594.186676025391</v>
       </c>
       <c r="C183" t="n">
-        <v>0.3284747830177245</v>
+        <v>0.4968097153669104</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_84.jpg</t>
+          <t>../check/v4n/A2B/real\R_84.jpg</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4445.048614501953</v>
+        <v>10039.59210205078</v>
       </c>
       <c r="C184" t="n">
-        <v>0.3961042828217789</v>
+        <v>0.4995043686474423</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_85.jpg</t>
+          <t>../check/v4n/A2B/real\R_85.jpg</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>4735.347366333008</v>
+        <v>5326.568664550781</v>
       </c>
       <c r="C185" t="n">
-        <v>0.4021974314645045</v>
+        <v>0.4889387064703893</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_86.jpg</t>
+          <t>../check/v4n/A2B/real\R_86.jpg</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5029.318817138672</v>
+        <v>7525.112411499023</v>
       </c>
       <c r="C186" t="n">
-        <v>0.373574698935181</v>
+        <v>0.4340499995658704</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_87.jpg</t>
+          <t>../check/v4n/A2B/real\R_87.jpg</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>5682.932403564453</v>
+        <v>7146.195205688477</v>
       </c>
       <c r="C187" t="n">
-        <v>0.3366125427085886</v>
+        <v>0.4381165618783409</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_88.jpg</t>
+          <t>../check/v4n/A2B/real\R_88.jpg</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>5519.450271606445</v>
+        <v>6623.074966430664</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3587396497216134</v>
+        <v>0.5177182908669371</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_89.jpg</t>
+          <t>../check/v4n/A2B/real\R_89.jpg</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>6073.768127441406</v>
+        <v>11580.04100036621</v>
       </c>
       <c r="C189" t="n">
-        <v>0.343464125248556</v>
+        <v>0.4180082891467056</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_9.jpg</t>
+          <t>../check/v4n/A2B/real\R_9.jpg</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>4164.19743347168</v>
+        <v>4728.105575561523</v>
       </c>
       <c r="C190" t="n">
-        <v>0.4148503273668647</v>
+        <v>0.5504498183676777</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_90.jpg</t>
+          <t>../check/v4n/A2B/real\R_90.jpg</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>5631.542068481445</v>
+        <v>12355.10620117188</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3487452184598507</v>
+        <v>0.4404964658145056</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_91.jpg</t>
+          <t>../check/v4n/A2B/real\R_91.jpg</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4719.411865234375</v>
+        <v>3229.155700683594</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3867516721818569</v>
+        <v>0.4892509469083366</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_92.jpg</t>
+          <t>../check/v4n/A2B/real\R_92.jpg</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>6684.441452026367</v>
+        <v>9970.312896728516</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3205102030016678</v>
+        <v>0.4042541584755114</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_93.jpg</t>
+          <t>../check/v4n/A2B/real\R_93.jpg</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4242.110458374023</v>
+        <v>10747.73425292969</v>
       </c>
       <c r="C194" t="n">
-        <v>0.3494774631991744</v>
+        <v>0.4940105021843535</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_94.jpg</t>
+          <t>../check/v4n/A2B/real\R_94.jpg</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>4552.613204956055</v>
+        <v>9578.17724609375</v>
       </c>
       <c r="C195" t="n">
-        <v>0.3657931577945594</v>
+        <v>0.456034949018786</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_95.jpg</t>
+          <t>../check/v4n/A2B/real\R_95.jpg</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>5623.003570556641</v>
+        <v>8132.127807617188</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3609267067157031</v>
+        <v>0.5707387202644134</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_96.jpg</t>
+          <t>../check/v4n/A2B/real\R_96.jpg</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>4676.706085205078</v>
+        <v>10296.02188110352</v>
       </c>
       <c r="C197" t="n">
-        <v>0.38670155118238</v>
+        <v>0.4733238238787684</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_97.jpg</t>
+          <t>../check/v4n/A2B/real\R_97.jpg</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>5032.845520019531</v>
+        <v>7754.759689331055</v>
       </c>
       <c r="C198" t="n">
-        <v>0.3344393359177163</v>
+        <v>0.4459451166960378</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_98.jpg</t>
+          <t>../check/v4n/A2B/real\R_98.jpg</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>4086.165496826172</v>
+        <v>13254.55931091309</v>
       </c>
       <c r="C199" t="n">
-        <v>0.4166946890604457</v>
+        <v>0.449246546703936</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>../check/v4/B2A/real\R_99.jpg</t>
+          <t>../check/v4n/A2B/real\R_99.jpg</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>7674.65071105957</v>
+        <v>12443.70733642578</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2518019820922889</v>
+        <v>0.3972533005303169</v>
       </c>
     </row>
   </sheetData>
